--- a/doc/fase-1/user-stories.xlsx
+++ b/doc/fase-1/user-stories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiebe\OneDrive\Bureaublad\MyBand-Starter\doc\fase-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiebe\OneDrive\Documenten\bewijzenmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D70CA6B-1D8B-4CD1-B146-1B23CAE78B0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{526B2083-E116-4C14-93F9-5DB3A041909F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{E47CE1EB-42C5-44BD-9862-23689AB842AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E47CE1EB-42C5-44BD-9862-23689AB842AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>Als</t>
   </si>
@@ -156,6 +156,30 @@
   </si>
   <si>
     <t>Wil ik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beveilingseisen </t>
+  </si>
+  <si>
+    <t>Tegen SQL en XSS beveiligd</t>
+  </si>
+  <si>
+    <t>geen</t>
+  </si>
+  <si>
+    <t>Elke user kan maar 1x rapporteren</t>
+  </si>
+  <si>
+    <t>Comment request limit</t>
+  </si>
+  <si>
+    <t>Geen</t>
+  </si>
+  <si>
+    <t>Email validation</t>
+  </si>
+  <si>
+    <t>Zoek voor valid ssid</t>
   </si>
 </sst>
 </file>
@@ -507,20 +531,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF85F706-D763-4CD8-806E-E54D31F07907}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="35.88671875" customWidth="1"/>
     <col min="3" max="3" width="51.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,8 +558,11 @@
       <c r="D1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -547,8 +575,11 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -561,8 +592,11 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -575,8 +609,11 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -589,8 +626,11 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -603,8 +643,11 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -617,8 +660,11 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -631,8 +677,11 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -645,8 +694,11 @@
       <c r="D9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -659,8 +711,11 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -673,8 +728,11 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -687,8 +745,11 @@
       <c r="D12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -701,8 +762,11 @@
       <c r="D13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -715,8 +779,11 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -729,8 +796,11 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -743,8 +813,11 @@
       <c r="D16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -756,6 +829,9 @@
       </c>
       <c r="D17" t="s">
         <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/doc/fase-1/user-stories.xlsx
+++ b/doc/fase-1/user-stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiebe\OneDrive\Documenten\bewijzenmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{526B2083-E116-4C14-93F9-5DB3A041909F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997D6C43-370D-4C62-A7A8-4F0A42BD0501}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E47CE1EB-42C5-44BD-9862-23689AB842AA}"/>
   </bookViews>
@@ -170,16 +170,16 @@
     <t>Elke user kan maar 1x rapporteren</t>
   </si>
   <si>
-    <t>Comment request limit</t>
-  </si>
-  <si>
     <t>Geen</t>
   </si>
   <si>
-    <t>Email validation</t>
-  </si>
-  <si>
-    <t>Zoek voor valid ssid</t>
+    <t>Cross-Site Request Forgery</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Broken Access Control</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -593,7 +593,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -644,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -695,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -712,7 +712,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -729,7 +729,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -746,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
